--- a/Code/Neural Networks/SRG_Data.xlsx
+++ b/Code/Neural Networks/SRG_Data.xlsx
@@ -27,7 +27,7 @@
     <t xml:space="preserve">README</t>
   </si>
   <si>
-    <t xml:space="preserve">Created with the code SRG_1_Hidden_Layer.py</t>
+    <t xml:space="preserve">Created with the code SRG_ML.py</t>
   </si>
   <si>
     <t xml:space="preserve">Neural Network was trained using data generated from solving the SRG flow equation using the ODE solver odeint</t>
@@ -338,7 +338,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -374,7 +374,7 @@
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Average Difference from odeint Results</a:t>
+              <a:t>Average Value of Loss Function</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -391,11 +391,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Vary_Number_Hidden_Layers!$S$26:$S$26</c:f>
+              <c:f>Vary_Times!$S$24:$S$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1 Hidden Layer</c:v>
+                  <c:v>1 Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -427,7 +427,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Vary_Number_Hidden_Layers!$A$4:$A$10</c:f>
+              <c:f>Vary_Times!$A$4:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -457,30 +457,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Vary_Number_Hidden_Layers!$M$4:$M$10</c:f>
+              <c:f>Vary_Times!$L$4:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.023368626</c:v>
+                  <c:v>0.0020392</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.06542992</c:v>
+                  <c:v>0.00010288</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.048179988</c:v>
+                  <c:v>0.0001104</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.055768214</c:v>
+                  <c:v>3.48E-005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.011014892</c:v>
+                  <c:v>5.4E-005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.009288298</c:v>
+                  <c:v>0.000202</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.028855324</c:v>
+                  <c:v>0.0022408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -492,11 +492,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Vary_Number_Hidden_Layers!$S$27:$S$27</c:f>
+              <c:f>Vary_Times!$S$25:$S$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2 Hidden Layers</c:v>
+                  <c:v>2 Times</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -528,7 +528,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Vary_Number_Hidden_Layers!$A$15:$A$21</c:f>
+              <c:f>Vary_Times!$A$15:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -558,30 +558,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Vary_Number_Hidden_Layers!$M$15:$M$21</c:f>
+              <c:f>Vary_Times!$L$15:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.065861838</c:v>
+                  <c:v>0.0132564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.026244858</c:v>
+                  <c:v>0.0003752</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.026137912</c:v>
+                  <c:v>0.000472</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.012308363</c:v>
+                  <c:v>6.08E-005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.026503866</c:v>
+                  <c:v>1.88E-005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1973257118</c:v>
+                  <c:v>0.005611</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.091844742</c:v>
+                  <c:v>0.0039268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -593,11 +593,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Vary_Number_Hidden_Layers!$S$28:$S$28</c:f>
+              <c:f>Vary_Times!$S$26:$S$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5 Hidden Layers</c:v>
+                  <c:v>5 Times</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -629,7 +629,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Vary_Number_Hidden_Layers!$A$26:$A$32</c:f>
+              <c:f>Vary_Times!$A$26:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -659,142 +659,41 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Vary_Number_Hidden_Layers!$M$26:$M$32</c:f>
+              <c:f>Vary_Times!$L$26:$L$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.02447184</c:v>
+                  <c:v>0.0001188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0079134828</c:v>
+                  <c:v>0.0069708</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0360455148</c:v>
+                  <c:v>0.0032842</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0070504298</c:v>
+                  <c:v>0.0001188</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0258566076</c:v>
+                  <c:v>0.0001414</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.09523569</c:v>
+                  <c:v>0.000904</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.032961934</c:v>
+                  <c:v>0.0082312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vary_Number_Hidden_Layers!$S$29:$S$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10 Hidden Layers</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Vary_Number_Hidden_Layers!$A$37:$A$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Vary_Number_Hidden_Layers!$M$37:$M$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.0258276</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.029642636</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.016589473</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0023619596</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0341043298</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0481457518</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0463394</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="62169180"/>
-        <c:axId val="3420755"/>
+        <c:axId val="73671549"/>
+        <c:axId val="11167895"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62169180"/>
+        <c:axId val="73671549"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -867,12 +766,555 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3420755"/>
+        <c:crossAx val="11167895"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="3420755"/>
+        <c:axId val="11167895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Average Value of Lost Function</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="73671549"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Average Difference from odeint Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vary_Times!$S$24:$S$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vary_Times!$A$4:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vary_Times!$M$4:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.02447184</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0079134828</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0360455148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0070504298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0258566076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.09523569</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.032961934</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vary_Times!$S$25:$S$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 Times</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vary_Times!$A$15:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vary_Times!$M$15:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.03383527</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.006477398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.028762674</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0147305686</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.004492547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.091438392</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0761869326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vary_Times!$S$26:$S$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 Times</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vary_Times!$A$26:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vary_Times!$M$26:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0030284464</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.027765054</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.029420254</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0030284464</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.002165862</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0198215192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0516673742</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="546722"/>
+        <c:axId val="79994094"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="546722"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Neurons Per Hidden Layer</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79994094"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="79994094"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,7 +1387,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62169180"/>
+        <c:crossAx val="546722"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -982,7 +1424,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1035,11 +1477,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Vary_Times!$S$24:$S$24</c:f>
+              <c:f>Vary_Number_Hidden_Layers!$S$26:$S$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1 Time</c:v>
+                  <c:v>1 Hidden Layer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1071,7 +1513,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Vary_Times!$A$4:$A$10</c:f>
+              <c:f>Vary_Number_Hidden_Layers!$A$4:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1101,30 +1543,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Vary_Times!$L$4:$L$10</c:f>
+              <c:f>Vary_Number_Hidden_Layers!$L$4:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0020392</c:v>
+                  <c:v>0.0032246</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00010288</c:v>
+                  <c:v>0.0027072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0001104</c:v>
+                  <c:v>0.000981</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.48E-005</c:v>
+                  <c:v>0.000297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4E-005</c:v>
+                  <c:v>8.82E-005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000202</c:v>
+                  <c:v>0.0002902</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0022408</c:v>
+                  <c:v>0.0003474</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1136,11 +1578,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Vary_Times!$S$25:$S$25</c:f>
+              <c:f>Vary_Number_Hidden_Layers!$S$27:$S$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2 Times</c:v>
+                  <c:v>2 Hidden Layers</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1172,7 +1614,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Vary_Times!$A$15:$A$21</c:f>
+              <c:f>Vary_Number_Hidden_Layers!$A$15:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1202,30 +1644,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Vary_Times!$L$15:$L$21</c:f>
+              <c:f>Vary_Number_Hidden_Layers!$L$15:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0132564</c:v>
+                  <c:v>0.0026966</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0003752</c:v>
+                  <c:v>0.0020138</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000472</c:v>
+                  <c:v>0.01600876</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.08E-005</c:v>
+                  <c:v>1.98E-005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.88E-005</c:v>
+                  <c:v>0.0005222</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.005611</c:v>
+                  <c:v>0.0001616</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0039268</c:v>
+                  <c:v>0.0010464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1237,11 +1679,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Vary_Times!$S$26:$S$26</c:f>
+              <c:f>Vary_Number_Hidden_Layers!$S$28:$S$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5 Times</c:v>
+                  <c:v>5 Hidden Layers</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1273,7 +1715,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Vary_Times!$A$26:$A$32</c:f>
+              <c:f>Vary_Number_Hidden_Layers!$A$26:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1303,41 +1745,142 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Vary_Times!$L$26:$L$32</c:f>
+              <c:f>Vary_Number_Hidden_Layers!$L$26:$L$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0001188</c:v>
+                  <c:v>0.0020392</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0069708</c:v>
+                  <c:v>0.00010288</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0032842</c:v>
+                  <c:v>0.0001104</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0001188</c:v>
+                  <c:v>3.48E-005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0001414</c:v>
+                  <c:v>5.4E-005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000904</c:v>
+                  <c:v>0.000202</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0082312</c:v>
+                  <c:v>0.0022408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="17307941"/>
-        <c:axId val="81152551"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vary_Number_Hidden_Layers!$S$29:$S$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 Hidden Layers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vary_Number_Hidden_Layers!$A$37:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vary_Number_Hidden_Layers!$L$37:$L$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0042698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001831</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.58E-005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6E-006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0008918</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0018938</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0280328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="57143731"/>
+        <c:axId val="84390847"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="17307941"/>
+        <c:axId val="57143731"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,12 +1953,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81152551"/>
+        <c:crossAx val="84390847"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81152551"/>
+        <c:axId val="84390847"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1452,7 +1995,7 @@
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Average Value of Lost Function</a:t>
+                  <a:t>Average Value of Loss Function</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1488,7 +2031,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17307941"/>
+        <c:crossAx val="57143731"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1525,7 +2068,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1561,7 +2104,7 @@
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Average Difference from odeint Results</a:t>
+              <a:t>Average Value of Loss Function</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1578,11 +2121,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Vary_Times!$S$24:$S$24</c:f>
+              <c:f>Vary_Number_Hidden_Layers!$S$26:$S$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1 Time</c:v>
+                  <c:v>1 Hidden Layer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1614,7 +2157,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Vary_Times!$A$4:$A$10</c:f>
+              <c:f>Vary_Number_Hidden_Layers!$A$4:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1644,30 +2187,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Vary_Times!$M$4:$M$10</c:f>
+              <c:f>Vary_Number_Hidden_Layers!$L$4:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.02447184</c:v>
+                  <c:v>0.0032246</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0079134828</c:v>
+                  <c:v>0.0027072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0360455148</c:v>
+                  <c:v>0.000981</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0070504298</c:v>
+                  <c:v>0.000297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0258566076</c:v>
+                  <c:v>8.82E-005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.09523569</c:v>
+                  <c:v>0.0002902</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.032961934</c:v>
+                  <c:v>0.0003474</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1679,11 +2222,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Vary_Times!$S$25:$S$25</c:f>
+              <c:f>Vary_Number_Hidden_Layers!$S$27:$S$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2 Times</c:v>
+                  <c:v>2 Hidden Layers</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1715,7 +2258,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Vary_Times!$A$15:$A$21</c:f>
+              <c:f>Vary_Number_Hidden_Layers!$A$15:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1745,30 +2288,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Vary_Times!$M$15:$M$21</c:f>
+              <c:f>Vary_Number_Hidden_Layers!$L$15:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.03383527</c:v>
+                  <c:v>0.0026966</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.006477398</c:v>
+                  <c:v>0.0020138</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.028762674</c:v>
+                  <c:v>0.01600876</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0147305686</c:v>
+                  <c:v>1.98E-005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.004492547</c:v>
+                  <c:v>0.0005222</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.091438392</c:v>
+                  <c:v>0.0001616</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0761869326</c:v>
+                  <c:v>0.0010464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1780,11 +2323,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Vary_Times!$S$26:$S$26</c:f>
+              <c:f>Vary_Number_Hidden_Layers!$S$28:$S$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5 Times</c:v>
+                  <c:v>5 Hidden Layers</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1816,7 +2359,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Vary_Times!$A$26:$A$32</c:f>
+              <c:f>Vary_Number_Hidden_Layers!$A$26:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1846,41 +2389,41 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Vary_Times!$M$26:$M$32</c:f>
+              <c:f>Vary_Number_Hidden_Layers!$L$26:$L$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0030284464</c:v>
+                  <c:v>0.0020392</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.027765054</c:v>
+                  <c:v>0.00010288</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.029420254</c:v>
+                  <c:v>0.0001104</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0030284464</c:v>
+                  <c:v>3.48E-005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.002165862</c:v>
+                  <c:v>5.4E-005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0198215192</c:v>
+                  <c:v>0.000202</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0516673742</c:v>
+                  <c:v>0.0022408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="56414143"/>
-        <c:axId val="59755492"/>
+        <c:axId val="19752869"/>
+        <c:axId val="26296048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="56414143"/>
+        <c:axId val="19752869"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1953,12 +2496,656 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59755492"/>
+        <c:crossAx val="26296048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59755492"/>
+        <c:axId val="26296048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Average Value of Loss Function</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="19752869"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Average Difference from odeint Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vary_Number_Hidden_Layers!$S$26:$S$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 Hidden Layer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vary_Number_Hidden_Layers!$A$4:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vary_Number_Hidden_Layers!$M$4:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.023368626</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06542992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.048179988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.055768214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.011014892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.009288298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.028855324</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vary_Number_Hidden_Layers!$S$27:$S$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 Hidden Layers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vary_Number_Hidden_Layers!$A$15:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vary_Number_Hidden_Layers!$M$15:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.065861838</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.026244858</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.026137912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.012308363</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.026503866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1973257118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.091844742</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vary_Number_Hidden_Layers!$S$28:$S$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5 Hidden Layers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vary_Number_Hidden_Layers!$A$26:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vary_Number_Hidden_Layers!$M$26:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.02447184</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0079134828</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0360455148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0070504298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0258566076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.09523569</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.032961934</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vary_Number_Hidden_Layers!$S$29:$S$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 Hidden Layers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vary_Number_Hidden_Layers!$A$37:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vary_Number_Hidden_Layers!$M$37:$M$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0258276</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.029642636</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.016589473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0023619596</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0341043298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0481457518</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0463394</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="88986884"/>
+        <c:axId val="66392465"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="88986884"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Neurons Per Hidden Layer</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66392465"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="66392465"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2031,1194 +3218,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56414143"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Average Value of Loss Function</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vary_Number_Hidden_Layers!$S$26:$S$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1 Hidden Layer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Vary_Number_Hidden_Layers!$A$4:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Vary_Number_Hidden_Layers!$L$4:$L$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.0032246</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0027072</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.000981</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.000297</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.82E-005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0002902</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0003474</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vary_Number_Hidden_Layers!$S$27:$S$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2 Hidden Layers</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Vary_Number_Hidden_Layers!$A$15:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Vary_Number_Hidden_Layers!$L$15:$L$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.0026966</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0020138</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01600876</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.98E-005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0005222</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0001616</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0010464</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vary_Number_Hidden_Layers!$S$28:$S$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5 Hidden Layers</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Vary_Number_Hidden_Layers!$A$26:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Vary_Number_Hidden_Layers!$L$26:$L$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.0020392</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.00010288</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0001104</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.48E-005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.4E-005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.000202</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0022408</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vary_Number_Hidden_Layers!$S$29:$S$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10 Hidden Layers</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Vary_Number_Hidden_Layers!$A$37:$A$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Vary_Number_Hidden_Layers!$L$37:$L$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.0042698</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.001831</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.58E-005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.6E-006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0008918</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0018938</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0280328</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="36220847"/>
-        <c:axId val="15095764"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="36220847"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Neurons Per Hidden Layer</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="15095764"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="15095764"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Average Value of Loss Function</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="36220847"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Average Value of Loss Function</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vary_Number_Hidden_Layers!$S$26:$S$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1 Hidden Layer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Vary_Number_Hidden_Layers!$A$4:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Vary_Number_Hidden_Layers!$L$4:$L$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.0032246</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0027072</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.000981</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.000297</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.82E-005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0002902</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0003474</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vary_Number_Hidden_Layers!$S$27:$S$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2 Hidden Layers</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Vary_Number_Hidden_Layers!$A$15:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Vary_Number_Hidden_Layers!$L$15:$L$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.0026966</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0020138</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01600876</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.98E-005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0005222</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0001616</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0010464</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vary_Number_Hidden_Layers!$S$28:$S$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5 Hidden Layers</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Vary_Number_Hidden_Layers!$A$26:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Vary_Number_Hidden_Layers!$L$26:$L$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.0020392</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.00010288</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0001104</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.48E-005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.4E-005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.000202</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0022408</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="45935941"/>
-        <c:axId val="98480334"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="45935941"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Neurons Per Hidden Layer</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="98480334"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="98480334"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Average Value of Loss Function</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="45935941"/>
+        <c:crossAx val="88986884"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3423,7 +3423,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
